--- a/docs/PTA2_DDC_60/PTA1_R6_BDDC_03.09.2024_output.xlsx
+++ b/docs/PTA2_DDC_60/PTA1_R6_BDDC_03.09.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K63"/>
+  <dimension ref="A1:N63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,941 +505,1119 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731412034.2304957</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731412037.185919</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412034.2304957.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412037.185919.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>243.5</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>246.53</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>-3.030000000000001</v>
+      </c>
+      <c r="N3" t="n">
+        <v>-1.24</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731412038.4147289</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731412040.5612886</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412038.4147289.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731412040.5612886.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>247.65</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>247.89</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>-0.2399999999999807</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731412040.8138268</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731412040.8138268.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731412040.8138268.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>246.9</v>
       </c>
-      <c r="J5" t="n">
-        <v>246.9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
+      <c r="L5" t="n">
+        <v>246.15</v>
+      </c>
+      <c r="M5" t="n">
+        <v>-0.75</v>
+      </c>
+      <c r="N5" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731412042.7074058</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731412045.0670962</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412042.7074058.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412045.0670962.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>243.5</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>246.53</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>-3.030000000000001</v>
+      </c>
+      <c r="N6" t="n">
+        <v>-1.24</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731412046.002592</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731412047.7718592</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412046.002592.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412047.7718592.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>247.65</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>247.89</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>-0.2399999999999807</v>
+      </c>
+      <c r="N7" t="n">
+        <v>-0.1</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731412047.9992507</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731412049.7631025</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412047.9992507.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412049.7631025.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>246.9</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>242.19</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-4.710000000000008</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-1.91</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731412049.9593616</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731412053.1698442</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412049.9593616.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412053.1698442.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>244.27</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>247.01</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>-2.739999999999981</v>
+      </c>
+      <c r="N9" t="n">
+        <v>-1.12</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731412054.4319458</t>
         </is>
       </c>
-      <c r="D10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>1731412056.4400513</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="G10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412054.4319458.png</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
+      <c r="H10" t="inlineStr">
         <is>
           <t>./test_images/SBER1731412056.4400513.png</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>248.5</v>
       </c>
-      <c r="J10" t="n">
+      <c r="L10" t="n">
         <v>248.67</v>
       </c>
-      <c r="K10" t="n">
+      <c r="M10" t="n">
         <v>-0.1699999999999875</v>
+      </c>
+      <c r="N10" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731412056.8353376</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731412056.8353376.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731412056.8353376.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>247.73</v>
       </c>
-      <c r="J11" t="n">
-        <v>247.73</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>247.04</v>
+      </c>
+      <c r="M11" t="n">
+        <v>-0.6899999999999977</v>
+      </c>
+      <c r="N11" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731412059.0101848</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731412060.9343843</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731412059.0101848.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731412060.9343843.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>123.97</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>123.92</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>0.04999999999999716</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0.04</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731412061.611349</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731412062.2423346</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731412061.611349.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/GAZP1731412062.2423346.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>125.03</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>124.57</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>0.460000000000008</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0.37</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731412065.1905143</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr"/>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731412065.1905143.png</t>
         </is>
       </c>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731412065.1905143.png</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>124.23</v>
       </c>
-      <c r="J14" t="n">
-        <v>124.23</v>
-      </c>
-      <c r="K14" t="n">
-        <v>0</v>
+      <c r="L14" t="n">
+        <v>123.4</v>
+      </c>
+      <c r="M14" t="n">
+        <v>-0.8299999999999983</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731412066.9476302</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
+      <c r="F15" t="inlineStr">
         <is>
           <t>1731412070.2990353</t>
         </is>
       </c>
-      <c r="E15" t="inlineStr">
+      <c r="G15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731412066.9476302.png</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731412070.2990353.png</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6128</v>
       </c>
-      <c r="J15" t="n">
+      <c r="L15" t="n">
         <v>6204.5</v>
       </c>
-      <c r="K15" t="n">
+      <c r="M15" t="n">
         <v>-76.5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>-1.25</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731412072.7723525</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731412073.0286598</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731412072.7723525.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731412073.0286598.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>6218.5</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>6207</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>11.5</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731412074.2185924</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr"/>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731412074.2185924.png</t>
         </is>
       </c>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731412074.2185924.png</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr"/>
+      <c r="I17" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>6175.5</v>
       </c>
-      <c r="J17" t="n">
-        <v>6175.5</v>
-      </c>
-      <c r="K17" t="n">
-        <v>0</v>
+      <c r="L17" t="n">
+        <v>6179</v>
+      </c>
+      <c r="M17" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.06</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731412076.2891521</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731412081.2250829</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731412076.2891521.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731412081.2250829.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>458.85</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>468.75</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-9.899999999999977</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-2.16</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731412081.9782739</t>
         </is>
       </c>
-      <c r="D19" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>1731412082.8432662</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731412081.9782739.png</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731412082.8432662.png</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>468.15</v>
       </c>
-      <c r="J19" t="n">
+      <c r="L19" t="n">
         <v>468.25</v>
       </c>
-      <c r="K19" t="n">
+      <c r="M19" t="n">
         <v>0.1000000000000227</v>
+      </c>
+      <c r="N19" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731412084.6912782</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731412089.9908586</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731412084.6912782.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731412089.9908586.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>192.54</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>194.9</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>-2.360000000000014</v>
+      </c>
+      <c r="N20" t="n">
+        <v>-1.23</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731412090.0647886</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731412090.612548</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731412090.0647886.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731412090.612548.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>194.45</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>194.45</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1432,1954 +1625,2332 @@
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731412091.3631203</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr"/>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731412091.3631203.png</t>
         </is>
       </c>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731412091.3631203.png</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>192.73</v>
       </c>
-      <c r="J22" t="n">
-        <v>192.73</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
+      <c r="L22" t="n">
+        <v>192.31</v>
+      </c>
+      <c r="M22" t="n">
+        <v>-0.4199999999999875</v>
+      </c>
+      <c r="N22" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731412093.2658381</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731412095.4672694</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731412093.2658381.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731412095.4672694.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>959.8</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>959.6</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.1999999999999318</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731412096.5810146</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731412097.1071646</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731412096.5810146.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731412097.1071646.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>970</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>963.2</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>6.799999999999955</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.7000000000000001</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731412097.9444919</t>
         </is>
       </c>
-      <c r="D25" t="inlineStr">
+      <c r="F25" t="inlineStr">
         <is>
           <t>1731412099.132477</t>
         </is>
       </c>
-      <c r="E25" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731412097.9444919.png</t>
         </is>
       </c>
-      <c r="F25" t="inlineStr">
+      <c r="H25" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731412099.132477.png</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>971</v>
       </c>
-      <c r="J25" t="n">
+      <c r="L25" t="n">
         <v>968.8</v>
       </c>
-      <c r="K25" t="n">
+      <c r="M25" t="n">
         <v>2.200000000000045</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731412100.1406443</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr"/>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731412100.1406443.png</t>
         </is>
       </c>
       <c r="F26" t="inlineStr"/>
       <c r="G26" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731412100.1406443.png</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr"/>
+      <c r="I26" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>966.6</v>
       </c>
-      <c r="J26" t="n">
-        <v>966.6</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
+      <c r="L26" t="n">
+        <v>963</v>
+      </c>
+      <c r="M26" t="n">
+        <v>-3.600000000000023</v>
+      </c>
+      <c r="N26" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731412102.69228</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731412104.4040525</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731412102.69228.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/CNY1731412104.4040525.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>11.995</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>11.975</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>0.01999999999999957</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731412106.2495935</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr"/>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>./test_images/CNY1731412106.2495935.png</t>
         </is>
       </c>
       <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
+          <t>./test_images/CNY1731412106.2495935.png</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr"/>
+      <c r="I28" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>11.999</v>
       </c>
-      <c r="J28" t="n">
-        <v>11.999</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
+      <c r="L28" t="n">
+        <v>12.071</v>
+      </c>
+      <c r="M28" t="n">
+        <v>-0.07199999999999918</v>
+      </c>
+      <c r="N28" t="n">
+        <v>-0.6</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731412111.0908809</t>
         </is>
       </c>
-      <c r="D29" t="inlineStr">
+      <c r="F29" t="inlineStr">
         <is>
           <t>1731412114.5293067</t>
         </is>
       </c>
-      <c r="E29" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731412111.0908809.png</t>
         </is>
       </c>
-      <c r="F29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731412114.5293067.png</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>104.4</v>
       </c>
-      <c r="J29" t="n">
+      <c r="L29" t="n">
         <v>105.82</v>
       </c>
-      <c r="K29" t="n">
+      <c r="M29" t="n">
         <v>-1.419999999999987</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-1.36</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731412115.3234751</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731412117.7172253</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731412115.3234751.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731412117.7172253.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>106.7</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>106.9</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>-0.2000000000000028</v>
+      </c>
+      <c r="N30" t="n">
+        <v>-0.19</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731412118.0058992</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr"/>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>./test_images/GMKN1731412118.0058992.png</t>
         </is>
       </c>
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
+          <t>./test_images/GMKN1731412118.0058992.png</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr"/>
+      <c r="I31" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>106.14</v>
       </c>
-      <c r="J31" t="n">
-        <v>106.14</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
+      <c r="L31" t="n">
+        <v>105.66</v>
+      </c>
+      <c r="M31" t="n">
+        <v>-0.480000000000004</v>
+      </c>
+      <c r="N31" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731412119.7721353</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731412123.218635</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731412119.7721353.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731412123.218635.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>127.64</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>129.96</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-2.320000000000007</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-1.82</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731412125.341098</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr"/>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>./test_images/NLMK1731412125.341098.png</t>
         </is>
       </c>
       <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
+          <t>./test_images/NLMK1731412125.341098.png</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr"/>
+      <c r="I33" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>129.78</v>
       </c>
-      <c r="J33" t="n">
-        <v>129.78</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
+      <c r="L33" t="n">
+        <v>127.76</v>
+      </c>
+      <c r="M33" t="n">
+        <v>-2.019999999999996</v>
+      </c>
+      <c r="N33" t="n">
+        <v>-1.56</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731412128.1483216</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731412132.0926287</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731412128.1483216.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731412132.0926287.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>41.025</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>41.515</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>-0.490000000000002</v>
+      </c>
+      <c r="N34" t="n">
+        <v>-1.19</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731412134.2272944</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731412135.7923727</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731412134.2272944.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731412135.7923727.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>41.38</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>41.04</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>-0.3400000000000034</v>
+      </c>
+      <c r="N35" t="n">
+        <v>-0.8200000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731412137.3963218</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731412140.942956</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731412137.3963218.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731412140.942956.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>1170.4</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>1197.8</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-27.39999999999986</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-2.34</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731412143.3894837</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr"/>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731412143.3894837.png</t>
         </is>
       </c>
       <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731412143.3894837.png</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr"/>
+      <c r="I37" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>1190.6</v>
       </c>
-      <c r="J37" t="n">
-        <v>1190.6</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
+      <c r="L37" t="n">
+        <v>1165.4</v>
+      </c>
+      <c r="M37" t="n">
+        <v>-25.19999999999982</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-2.12</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731412145.8376427</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731412152.0260952</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731412145.8376427.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731412152.0260952.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>47.43</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>48.53</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-1.100000000000001</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-2.32</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731412152.275289</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr"/>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731412152.275289.png</t>
         </is>
       </c>
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731412152.275289.png</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr"/>
+      <c r="I39" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>48.25</v>
       </c>
-      <c r="J39" t="n">
-        <v>48.25</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
+      <c r="L39" t="n">
+        <v>47.94</v>
+      </c>
+      <c r="M39" t="n">
+        <v>-0.3100000000000023</v>
+      </c>
+      <c r="N39" t="n">
+        <v>-0.64</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731412154.225208</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731412157.3186655</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731412154.225208.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731412157.3186655.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>86.59</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>87.73999999999999</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-1.149999999999991</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-1.33</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731412157.5717876</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731412158.286102</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731412157.5717876.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731412158.286102.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>87.34</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>87.59999999999999</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.2599999999999909</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731412158.7682576</t>
         </is>
       </c>
-      <c r="D42" t="inlineStr">
+      <c r="F42" t="inlineStr">
         <is>
           <t>1731412160.7091515</t>
         </is>
       </c>
-      <c r="E42" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731412158.7682576.png</t>
         </is>
       </c>
-      <c r="F42" t="inlineStr">
+      <c r="H42" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731412160.7091515.png</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>88.26000000000001</v>
       </c>
-      <c r="J42" t="n">
+      <c r="L42" t="n">
         <v>88.31</v>
       </c>
-      <c r="K42" t="n">
+      <c r="M42" t="n">
         <v>-0.04999999999999716</v>
+      </c>
+      <c r="N42" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731412160.8413117</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr"/>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731412160.8413117.png</t>
         </is>
       </c>
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731412160.8413117.png</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr"/>
+      <c r="I43" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>87.81</v>
       </c>
-      <c r="J43" t="n">
-        <v>87.81</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
+      <c r="L43" t="n">
+        <v>87.29000000000001</v>
+      </c>
+      <c r="M43" t="n">
+        <v>-0.519999999999996</v>
+      </c>
+      <c r="N43" t="n">
+        <v>-0.59</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731412162.7810695</t>
         </is>
       </c>
-      <c r="D44" t="inlineStr">
+      <c r="F44" t="inlineStr">
         <is>
           <t>1731412165.5701842</t>
         </is>
       </c>
-      <c r="E44" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>./test_images/SELG1731412162.7810695.png</t>
         </is>
       </c>
-      <c r="F44" t="inlineStr">
+      <c r="H44" t="inlineStr">
         <is>
           <t>./test_images/SELG1731412165.5701842.png</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>46.74</v>
       </c>
-      <c r="J44" t="n">
+      <c r="L44" t="n">
         <v>47.66</v>
       </c>
-      <c r="K44" t="n">
+      <c r="M44" t="n">
         <v>-0.9199999999999946</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-1.97</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731412165.783093</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731412166.1175947</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/SELG1731412165.783093.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/SELG1731412166.1175947.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>47.39</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>47.66</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.269999999999996</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.5700000000000001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731412167.1489897</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731412168.3117123</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731412167.1489897.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/SELG1731412168.3117123.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>47.86</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>47.66</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>0.2000000000000028</v>
+      </c>
+      <c r="N46" t="n">
+        <v>0.42</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731412168.5902267</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr"/>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731412168.5902267.png</t>
         </is>
       </c>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731412168.5902267.png</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr"/>
+      <c r="I47" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>47.26</v>
       </c>
-      <c r="J47" t="n">
-        <v>47.26</v>
-      </c>
-      <c r="K47" t="n">
-        <v>0</v>
+      <c r="L47" t="n">
+        <v>46.8</v>
+      </c>
+      <c r="M47" t="n">
+        <v>-0.4600000000000009</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.97</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731412170.4998817</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731412173.3710847</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731412170.4998817.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731412173.3710847.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>138.98</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>139.2</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>-0.2199999999999989</v>
+      </c>
+      <c r="N48" t="n">
+        <v>-0.16</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731412174.6968522</t>
         </is>
       </c>
-      <c r="D49" t="inlineStr">
+      <c r="F49" t="inlineStr">
         <is>
           <t>1731412175.0014749</t>
         </is>
       </c>
-      <c r="E49" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731412174.6968522.png</t>
         </is>
       </c>
-      <c r="F49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731412175.0014749.png</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>140.34</v>
       </c>
-      <c r="J49" t="n">
+      <c r="L49" t="n">
         <v>139.62</v>
       </c>
-      <c r="K49" t="n">
+      <c r="M49" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="N49" t="n">
+        <v>0.51</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731412175.388523</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731412176.8884065</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731412175.388523.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731412176.8884065.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>139.28</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>139</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>-0.2800000000000011</v>
+      </c>
+      <c r="N50" t="n">
+        <v>-0.2</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731412177.1126592</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731412178.1467316</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731412177.1126592.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731412178.1467316.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>0.2711</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>0.2768</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>0.005699999999999983</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2.1</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731412178.6314504</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731412183.6468346</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731412178.6314504.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731412183.6468346.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>0.2804</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>0.2793</v>
       </c>
-      <c r="K52" t="n">
-        <v>0.001100000000000045</v>
+      <c r="M52" t="n">
+        <v>0.00109999999999999</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.39</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731412184.174928</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731412184.174928.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731412184.174928.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>0.278</v>
       </c>
-      <c r="J53" t="n">
-        <v>0.278</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
+      <c r="L53" t="n">
+        <v>0.2766</v>
+      </c>
+      <c r="M53" t="n">
+        <v>-0.001400000000000012</v>
+      </c>
+      <c r="N53" t="n">
+        <v>-0.5</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731412185.5597546</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731412187.2761614</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731412185.5597546.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731412187.2761614.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>15.303</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>15.185</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
         <v>0.1180000000000003</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731412189.857018</t>
         </is>
       </c>
-      <c r="D55" t="inlineStr">
+      <c r="F55" t="inlineStr">
         <is>
           <t>1731412191.1423447</t>
         </is>
       </c>
-      <c r="E55" t="inlineStr">
+      <c r="G55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731412189.857018.png</t>
         </is>
       </c>
-      <c r="F55" t="inlineStr">
+      <c r="H55" t="inlineStr">
         <is>
           <t>./test_images/AFKS1731412191.1423447.png</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
+      <c r="I55" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>15.373</v>
       </c>
-      <c r="J55" t="n">
+      <c r="L55" t="n">
         <v>15.311</v>
       </c>
-      <c r="K55" t="n">
+      <c r="M55" t="n">
         <v>0.06199999999999939</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731412191.655089</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr"/>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731412191.655089.png</t>
         </is>
       </c>
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731412191.655089.png</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr"/>
+      <c r="I56" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>15.237</v>
       </c>
-      <c r="J56" t="n">
-        <v>15.237</v>
-      </c>
-      <c r="K56" t="n">
-        <v>0</v>
+      <c r="L56" t="n">
+        <v>15.113</v>
+      </c>
+      <c r="M56" t="n">
+        <v>-0.1240000000000006</v>
+      </c>
+      <c r="N56" t="n">
+        <v>-0.8099999999999999</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731412194.003119</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731412197.3788137</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731412194.003119.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731412197.3788137.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>644.95</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>650.9</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>-5.949999999999932</v>
+      </c>
+      <c r="N57" t="n">
+        <v>-0.9199999999999999</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731412200.2009125</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731412200.508939</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731412200.2009125.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731412200.508939.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>650.1</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>651.3</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>1.199999999999932</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731412201.0862296</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/SIBN1731412201.0862296.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/SIBN1731412201.0862296.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>646.75</v>
       </c>
-      <c r="J59" t="n">
-        <v>646.75</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
+      <c r="L59" t="n">
+        <v>646.65</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.1000000000000227</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731412202.0125997</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731412203.7992396</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731412202.0125997.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731412203.7992396.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>113.48</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>113.86</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>-0.3799999999999955</v>
+      </c>
+      <c r="N60" t="n">
+        <v>-0.33</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731412204.8951924</t>
         </is>
       </c>
-      <c r="D61" t="inlineStr">
+      <c r="F61" t="inlineStr">
         <is>
           <t>1731412205.932501</t>
         </is>
       </c>
-      <c r="E61" t="inlineStr">
+      <c r="G61" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731412204.8951924.png</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731412205.932501.png</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>113.36</v>
       </c>
-      <c r="J61" t="n">
+      <c r="L61" t="n">
         <v>114.02</v>
       </c>
-      <c r="K61" t="n">
+      <c r="M61" t="n">
         <v>0.6599999999999966</v>
+      </c>
+      <c r="N61" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731412206.600091</t>
         </is>
       </c>
-      <c r="D62" t="inlineStr">
+      <c r="F62" t="inlineStr">
         <is>
           <t>1731412208.2241905</t>
         </is>
       </c>
-      <c r="E62" t="inlineStr">
+      <c r="G62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731412206.600091.png</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731412208.2241905.png</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>114.62</v>
       </c>
-      <c r="J62" t="n">
+      <c r="L62" t="n">
         <v>114.1</v>
       </c>
-      <c r="K62" t="n">
+      <c r="M62" t="n">
         <v>0.5200000000000102</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731412208.4910977</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr"/>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731412208.4910977.png</t>
         </is>
       </c>
       <c r="F63" t="inlineStr"/>
       <c r="G63" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731412208.4910977.png</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr"/>
+      <c r="I63" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>113.47</v>
       </c>
-      <c r="J63" t="n">
-        <v>113.47</v>
-      </c>
-      <c r="K63" t="n">
-        <v>0</v>
+      <c r="L63" t="n">
+        <v>112.6</v>
+      </c>
+      <c r="M63" t="n">
+        <v>-0.8700000000000045</v>
+      </c>
+      <c r="N63" t="n">
+        <v>-0.77</v>
       </c>
     </row>
   </sheetData>
@@ -3393,7 +3964,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3422,6 +3993,16 @@
           <t>part</t>
         </is>
       </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3430,13 +4011,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-10.88999999999996</v>
+        <v>-11.57999999999996</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.814999999999993</v>
+        <v>-1.929999999999993</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-4.72</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.79</v>
       </c>
     </row>
     <row r="3">
@@ -3446,13 +4033,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.8000000000000114</v>
+        <v>-0.06999999999999318</v>
       </c>
       <c r="C3" t="n">
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>0.2000000000000028</v>
+        <v>-0.01749999999999829</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-0.07000000000000006</v>
+      </c>
+      <c r="F3" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="4">
@@ -3462,13 +4055,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>-0.9399999999999977</v>
+        <v>-1.459999999999994</v>
       </c>
       <c r="C4" t="n">
         <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2349999999999994</v>
+        <v>-0.3649999999999984</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-1.68</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.42</v>
       </c>
     </row>
     <row r="5">
@@ -3478,13 +4077,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4499999999999957</v>
+        <v>-0.9099999999999966</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1124999999999989</v>
+        <v>-0.2274999999999991</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-1.95</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.49</v>
       </c>
     </row>
     <row r="6">
@@ -3494,13 +4099,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>9.199999999999932</v>
+        <v>5.599999999999909</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>2.299999999999983</v>
+        <v>1.399999999999977</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.5800000000000001</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="7">
@@ -3510,13 +4121,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.006800000000000028</v>
+        <v>0.00539999999999996</v>
       </c>
       <c r="C7" t="n">
         <v>3</v>
       </c>
       <c r="D7" t="n">
-        <v>0.002266666666666676</v>
+        <v>0.001799999999999987</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0.66</v>
       </c>
     </row>
     <row r="8">
@@ -3534,6 +4151,12 @@
       <c r="D8" t="n">
         <v>0.07333333333333296</v>
       </c>
+      <c r="E8" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3542,13 +4165,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-4.75</v>
+        <v>-4.850000000000023</v>
       </c>
       <c r="C9" t="n">
         <v>3</v>
       </c>
       <c r="D9" t="n">
-        <v>-1.583333333333333</v>
+        <v>-1.616666666666674</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.7599999999999999</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.25</v>
       </c>
     </row>
     <row r="10">
@@ -3558,13 +4187,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-3.269999999999982</v>
+        <v>-4.019999999999982</v>
       </c>
       <c r="C10" t="n">
         <v>3</v>
       </c>
       <c r="D10" t="n">
-        <v>-1.089999999999994</v>
+        <v>-1.339999999999994</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-1.64</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.55</v>
       </c>
     </row>
     <row r="11">
@@ -3574,13 +4209,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.1799999999999997</v>
+        <v>0.05599999999999916</v>
       </c>
       <c r="C11" t="n">
         <v>3</v>
       </c>
       <c r="D11" t="n">
-        <v>0.05999999999999991</v>
+        <v>0.01866666666666639</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.3600000000000001</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="12">
@@ -3590,13 +4231,19 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-2.360000000000014</v>
+        <v>-2.780000000000001</v>
       </c>
       <c r="C12" t="n">
         <v>3</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.7866666666666712</v>
+        <v>-0.9266666666666671</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-1.45</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.48</v>
       </c>
     </row>
     <row r="13">
@@ -3606,13 +4253,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>-65</v>
+        <v>-61.5</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
       <c r="D13" t="n">
-        <v>-21.66666666666667</v>
+        <v>-20.5</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-1.01</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="14">
@@ -3622,13 +4275,19 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>-1.61999999999999</v>
+        <v>-2.099999999999994</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.5399999999999968</v>
+        <v>-0.6999999999999981</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-2</v>
+      </c>
+      <c r="F14" t="n">
+        <v>-0.67</v>
       </c>
     </row>
     <row r="15">
@@ -3638,13 +4297,19 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.5100000000000051</v>
+        <v>-0.3199999999999932</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>0.1700000000000017</v>
+        <v>-0.1066666666666644</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-0.2600000000000001</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="16">
@@ -3654,13 +4319,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-1.100000000000001</v>
+        <v>-1.410000000000004</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5500000000000007</v>
+        <v>-0.7050000000000018</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-2.96</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-1.48</v>
       </c>
     </row>
     <row r="17">
@@ -3670,13 +4341,19 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-2.320000000000007</v>
+        <v>-4.340000000000003</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
       <c r="D17" t="n">
-        <v>-1.160000000000004</v>
+        <v>-2.170000000000002</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-3.38</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-1.69</v>
       </c>
     </row>
     <row r="18">
@@ -3694,6 +4371,12 @@
       <c r="D18" t="n">
         <v>-4.899999999999977</v>
       </c>
+      <c r="E18" t="n">
+        <v>-2.14</v>
+      </c>
+      <c r="F18" t="n">
+        <v>-1.07</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3710,6 +4393,12 @@
       <c r="D19" t="n">
         <v>-0.4150000000000027</v>
       </c>
+      <c r="E19" t="n">
+        <v>-2.01</v>
+      </c>
+      <c r="F19" t="n">
+        <v>-1.01</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3718,13 +4407,19 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0.01999999999999957</v>
+        <v>-0.0519999999999996</v>
       </c>
       <c r="C20" t="n">
         <v>2</v>
       </c>
       <c r="D20" t="n">
-        <v>0.009999999999999787</v>
+        <v>-0.0259999999999998</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.43</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="21">
@@ -3734,13 +4429,19 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-27.39999999999986</v>
+        <v>-52.59999999999968</v>
       </c>
       <c r="C21" t="n">
         <v>2</v>
       </c>
       <c r="D21" t="n">
-        <v>-13.69999999999993</v>
+        <v>-26.29999999999984</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-4.46</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-2.23</v>
       </c>
     </row>
     <row r="22">
@@ -3756,6 +4457,10 @@
         <v>0</v>
       </c>
       <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
